--- a/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/集体资本金.xlsx
+++ b/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/集体资本金.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>92.36311000000001</v>
-      </c>
-      <c r="C2" t="n">
-        <v>120.55842</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.64134</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.12831</v>
-      </c>
-      <c r="F2" t="n">
-        <v>41.54996</v>
-      </c>
-      <c r="G2" t="n">
-        <v>154.80113</v>
-      </c>
-      <c r="H2" t="n">
-        <v>34.71605</v>
-      </c>
-      <c r="I2" t="n">
-        <v>49.54841</v>
-      </c>
-      <c r="J2" t="n">
-        <v>36.66029</v>
-      </c>
-      <c r="K2" t="n">
-        <v>104.21011</v>
-      </c>
-      <c r="L2" t="n">
-        <v>19.80324</v>
-      </c>
-      <c r="M2" t="n">
-        <v>18.79812</v>
-      </c>
-      <c r="N2" t="n">
-        <v>127.81057</v>
-      </c>
-      <c r="O2" t="n">
-        <v>63.70977</v>
-      </c>
-      <c r="P2" t="n">
-        <v>22.27802</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>101.54953</v>
-      </c>
-      <c r="R2" t="n">
-        <v>21.46837</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.24638</v>
-      </c>
-      <c r="T2" t="n">
-        <v>27.7202</v>
-      </c>
-      <c r="U2" t="n">
-        <v>3.98266</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.66357</v>
-      </c>
-      <c r="W2" t="n">
-        <v>49.64496</v>
-      </c>
-      <c r="X2" t="n">
-        <v>78.97383000000001</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>56.51193</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>201.26348</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>38.85789</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>28.59463</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.93915</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>236.49992</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>14.94084</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>2568.29352</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>81.37599</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>134.01828</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>260.25454</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>20.75103</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>48.59771</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>94.95149000000001</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>43.4226</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>107.82565</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>9.30852</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>76.22423000000001</v>
-      </c>
-      <c r="C3" t="n">
-        <v>101.1625</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.41291</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.04091</v>
-      </c>
-      <c r="F3" t="n">
-        <v>35.49197</v>
-      </c>
-      <c r="G3" t="n">
-        <v>151.91215</v>
-      </c>
-      <c r="H3" t="n">
-        <v>35.39646</v>
-      </c>
-      <c r="I3" t="n">
-        <v>57.67086</v>
-      </c>
-      <c r="J3" t="n">
-        <v>28.91104</v>
-      </c>
-      <c r="K3" t="n">
-        <v>95.58767</v>
-      </c>
-      <c r="L3" t="n">
-        <v>14.86146</v>
-      </c>
-      <c r="M3" t="n">
-        <v>14.71948</v>
-      </c>
-      <c r="N3" t="n">
-        <v>107.442</v>
-      </c>
-      <c r="O3" t="n">
-        <v>47.39889</v>
-      </c>
-      <c r="P3" t="n">
-        <v>23.35425</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>83.52307</v>
-      </c>
-      <c r="R3" t="n">
-        <v>20.08938</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.12007</v>
-      </c>
-      <c r="T3" t="n">
-        <v>26.51471</v>
-      </c>
-      <c r="U3" t="n">
-        <v>3.6487</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.00683</v>
-      </c>
-      <c r="W3" t="n">
-        <v>45.1358</v>
-      </c>
-      <c r="X3" t="n">
-        <v>83.21755</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>51.18773</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>158.8893</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>27.82008</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>25.84653</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>6.12343</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>206.11138</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>13.55508</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>2291.54148</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>73.84179</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>115.24981</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>247.15175</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>18.76239</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>50.23613</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>85.68601</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>35.34664</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>96.83279</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>9.747949999999999</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>63.61364</v>
-      </c>
-      <c r="C4" t="n">
-        <v>134.56073</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15.17522</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.06781</v>
-      </c>
-      <c r="F4" t="n">
-        <v>30.58727</v>
-      </c>
-      <c r="G4" t="n">
-        <v>146.95977</v>
-      </c>
-      <c r="H4" t="n">
-        <v>20.53135</v>
-      </c>
-      <c r="I4" t="n">
-        <v>56.52636</v>
-      </c>
-      <c r="J4" t="n">
-        <v>26.69951</v>
-      </c>
-      <c r="K4" t="n">
-        <v>87.16269</v>
-      </c>
-      <c r="L4" t="n">
-        <v>11.87565</v>
-      </c>
-      <c r="M4" t="n">
-        <v>14.89846</v>
-      </c>
-      <c r="N4" t="n">
-        <v>96.72496</v>
-      </c>
-      <c r="O4" t="n">
-        <v>48.13737</v>
-      </c>
-      <c r="P4" t="n">
-        <v>24.00709</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>77.85675000000001</v>
-      </c>
-      <c r="R4" t="n">
-        <v>17.78791</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.09214</v>
-      </c>
-      <c r="T4" t="n">
-        <v>24.20407</v>
-      </c>
-      <c r="U4" t="n">
-        <v>3.39792</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.82037</v>
-      </c>
-      <c r="W4" t="n">
-        <v>52.25747</v>
-      </c>
-      <c r="X4" t="n">
-        <v>78.55324</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>42.58319</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>141.03829</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>22.73947</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>25.93399</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.29369</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>181.94717</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>14.53565</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>2155.61326</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>69.81216000000001</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>104.71449</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>222.11912</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>14.57115</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>46.90108</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>89.42537</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>35.61714</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>100.28946</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>9.420590000000001</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
